--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3345569.673600814</v>
+        <v>3343682.092084412</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>132.8669678359347</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.789952192105425</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>234.4970761400735</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>377.9452985541578</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>32.56842626327222</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>43.31785343913981</v>
+        <v>42.93165166918606</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>231.4408706859778</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>252.7077160573362</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>122.5935461816077</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.96451678969</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>33.35146980185853</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>77.86828753831539</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,10 +1822,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1291651532049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>118.4898845065119</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>118.2422920270585</v>
       </c>
     </row>
     <row r="20">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002174</v>
+        <v>21.96549637701669</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>97.12772045570675</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>119.3786445880198</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>21.84773706512528</v>
       </c>
       <c r="E31" t="n">
-        <v>71.01186072229734</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>93.71057173897896</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.76109577523562</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982752</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>567.2866436578636</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>209.0209450511131</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>209.0209450511131</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>202.0754443019096</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>188.1520402405005</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4352,10 +4352,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.483574129469</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859355</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982752</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982752</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,25 +4434,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>262.1862143682812</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>262.1862143682812</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>104.4378418008113</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2113.174258592771</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C5" t="n">
-        <v>1744.21174165236</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>1385.946043045609</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1000.157790447365</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>589.1718856577575</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592771</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>2113.174258592771</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="6">
@@ -4644,10 +4644,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598713</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W7" t="n">
-        <v>684.3735766921516</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>847.844772492695</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>847.844772492695</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>462.0565198944508</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>455.1110191452473</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>441.1876150838382</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>2386.860082298881</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y8" t="n">
-        <v>1996.720750323069</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="9">
@@ -4887,7 +4887,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155873</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5060,31 +5060,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>498.9056400965593</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L12" t="n">
-        <v>745.6707680030233</v>
+        <v>659.373105721172</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.063975947119</v>
@@ -5212,7 +5212,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5285,28 +5285,28 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5361,22 +5361,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365143</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>175.8719273575741</v>
       </c>
       <c r="C16" t="n">
         <v>97.21709146028584</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5449,7 +5449,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765182</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706313</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>357.5203921878137</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>357.5203921878139</v>
       </c>
     </row>
     <row r="17">
@@ -5513,13 +5513,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5680,13 +5680,13 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S19" t="n">
-        <v>1379.229518531123</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>964.1357418247853</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018334</v>
+        <v>385.5899330013831</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>385.5899330013831</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5914,7 +5914,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1476.728900480108</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1476.728900480108</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1187.600261693666</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>932.9157734877789</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>643.4986034508183</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
@@ -5990,22 +5990,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6145,7 +6145,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
@@ -6169,25 +6169,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6203,16 +6203,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,13 +6221,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,34 +6236,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>217.8015809431342</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>217.8015809431342</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>874.9271131227911</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706317</v>
+        <v>620.2426249169041</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336711</v>
+        <v>620.2426249169041</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>620.2426249169041</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>399.450045773374</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6449,25 +6449,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>730.4517433652474</v>
+        <v>439.5324299542204</v>
       </c>
       <c r="C31" t="n">
-        <v>617.2764257187113</v>
+        <v>326.3571123076844</v>
       </c>
       <c r="D31" t="n">
-        <v>522.9206515877463</v>
+        <v>304.2886910297802</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430015</v>
+        <v>304.2886910297802</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>304.2886910297802</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818931</v>
+        <v>902.6804289818947</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652474</v>
+        <v>730.4517433652484</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652474</v>
+        <v>565.4200295030892</v>
       </c>
     </row>
     <row r="32">
@@ -6677,67 +6677,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6777,22 +6777,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,16 +6871,16 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045198</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7269,7 +7269,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108341</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045217</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010327</v>
       </c>
     </row>
     <row r="41">
@@ -7391,25 +7391,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7582,37 +7582,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7734,16 +7734,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110834</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229682</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506736</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083216</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504523</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649695</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860497</v>
@@ -7819,22 +7819,22 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045217</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010326</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627881</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8535,10 +8535,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>213.2603911806626</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>76.4319698833857</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>5.100663089360268</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>433.7515527292973</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>158.8724419039331</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>230.7151863772036</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305232</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,13 +10437,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>392.1113620226433</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,19 +11382,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>93.88676507992591</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>133.8953512967693</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>89.37853356031245</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>82.39383318338611</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>79.43092547709139</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>100.3423613250363</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338589</v>
+        <v>175.9553136065866</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>124.4198406026825</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>29.23682843019263</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229313</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>71.56447932452991</v>
       </c>
       <c r="E31" t="n">
-        <v>20.21884529571473</v>
+        <v>91.230706018012</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437407</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571482</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>746537.7231523495</v>
+        <v>746537.7231523497</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846412</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.5043846411</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846412</v>
-      </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541051</v>
       </c>
       <c r="F2" t="n">
         <v>664749.4015541049</v>
       </c>
       <c r="G2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.401554105</v>
       </c>
       <c r="H2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541052</v>
       </c>
       <c r="I2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541052</v>
       </c>
       <c r="J2" t="n">
         <v>664749.401554105</v>
       </c>
       <c r="K2" t="n">
-        <v>691597.6334869593</v>
+        <v>691597.6334869596</v>
       </c>
       <c r="L2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.504384641</v>
       </c>
       <c r="M2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="N2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="O2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="P2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.504384641</v>
       </c>
     </row>
     <row r="3">
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284573</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086678</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284572</v>
       </c>
     </row>
     <row r="4">
@@ -26424,13 +26424,13 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143918</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26439,25 +26439,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="K4" t="n">
         <v>33210.29213563564</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-131716.4111445354</v>
+        <v>-131716.4111445353</v>
       </c>
       <c r="C6" t="n">
-        <v>458251.4680700091</v>
+        <v>458251.468070009</v>
       </c>
       <c r="D6" t="n">
-        <v>458251.4680700089</v>
+        <v>458251.4680700093</v>
       </c>
       <c r="E6" t="n">
-        <v>32556.36950705299</v>
+        <v>32458.910381081</v>
       </c>
       <c r="F6" t="n">
-        <v>557716.4059839492</v>
+        <v>557618.9468579771</v>
       </c>
       <c r="G6" t="n">
-        <v>557716.4059839494</v>
+        <v>557618.9468579772</v>
       </c>
       <c r="H6" t="n">
-        <v>557716.4059839493</v>
+        <v>557618.9468579774</v>
       </c>
       <c r="I6" t="n">
-        <v>557716.4059839491</v>
+        <v>557618.9468579774</v>
       </c>
       <c r="J6" t="n">
-        <v>381293.1867913564</v>
+        <v>381195.7276653841</v>
       </c>
       <c r="K6" t="n">
-        <v>517596.5275182552</v>
+        <v>517578.0337803211</v>
       </c>
       <c r="L6" t="n">
-        <v>552363.0349009888</v>
+        <v>552363.0349009892</v>
       </c>
       <c r="M6" t="n">
-        <v>427904.9264680184</v>
+        <v>427904.9264680188</v>
       </c>
       <c r="N6" t="n">
-        <v>562705.9417018556</v>
+        <v>562705.9417018559</v>
       </c>
       <c r="O6" t="n">
-        <v>562705.9417018556</v>
+        <v>562705.9417018561</v>
       </c>
       <c r="P6" t="n">
-        <v>518543.33639901</v>
+        <v>518543.3363990103</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964061</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26759,10 +26759,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108347</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>191.0558049284224</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>39.5380257591774</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>130.1756696002328</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27591,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>52.02592219651751</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>35.83887146663716</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>353.6695123927814</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>243.2051448974512</v>
+        <v>243.5913466674049</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>92.48190207837939</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>117.0233846211329</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>44.65327491702013</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28059,13 +28059,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28096,13 +28096,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.414636683656336e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28150,13 +28150,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-1.418346201497235e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-2.270997484409356e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307146</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35255,10 +35255,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>363.8358297686019</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>409.6265432813985</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>212.1940780208849</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>766.9461261273101</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -35981,10 +35981,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,19 +36206,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>492.0670153019459</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>479.9728913332278</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36449,13 +36449,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>590.4888118683114</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009916</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,13 +37157,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>682.9598737318697</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37385,25 +37385,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>725.3059354206563</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37637,10 +37637,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686865</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>404.3111421303921</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38184,16 +38184,16 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
